--- a/Design/Excel/Game/Datas/Scene.xlsx
+++ b/Design/Excel/Game/Datas/Scene.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23700" windowHeight="11475"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="场景配置表" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
   <si>
     <t>##var</t>
   </si>
@@ -52,10 +52,16 @@
     <t>背景音乐编号</t>
   </si>
   <si>
-    <t>Area_1001</t>
+    <t>菜单场景</t>
   </si>
   <si>
-    <t>Area_7000001</t>
+    <t>Menu</t>
+  </si>
+  <si>
+    <t>战斗场景</t>
+  </si>
+  <si>
+    <t>Main</t>
   </si>
 </sst>
 </file>
@@ -68,19 +74,13 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -96,6 +96,82 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -104,130 +180,54 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -242,19 +242,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -266,163 +416,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -433,15 +433,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -456,45 +447,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -516,10 +468,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -533,16 +483,66 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -551,145 +551,152 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1039,502 +1046,507 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H120"/>
+  <dimension ref="A1:H117"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
-    <col min="2" max="2" width="19.375" customWidth="1"/>
-    <col min="3" max="3" width="17.125" customWidth="1"/>
-    <col min="4" max="4" width="29.75" customWidth="1"/>
-    <col min="5" max="5" width="14.625" customWidth="1"/>
-    <col min="6" max="6" width="23.125" customWidth="1"/>
-    <col min="7" max="7" width="23" customWidth="1"/>
-    <col min="8" max="8" width="21.375" customWidth="1"/>
+    <col min="1" max="1" width="8.875" style="1"/>
+    <col min="2" max="2" width="19.375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="17.125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="29.75" style="1" customWidth="1"/>
+    <col min="5" max="5" width="25.25" style="1" customWidth="1"/>
+    <col min="6" max="6" width="23.125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="23" style="1" customWidth="1"/>
+    <col min="8" max="8" width="21.375" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16.5" spans="1:8">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
     </row>
-    <row r="2" ht="16.5" spans="1:5">
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" ht="16.5" spans="1:5">
+    <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="4" spans="2:5">
-      <c r="B4">
-        <v>1001</v>
-      </c>
-      <c r="D4" s="2" t="s">
+      <c r="B4" s="3">
+        <v>1</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="2">
+      <c r="D4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="2:5">
-      <c r="B5">
-        <v>7000001</v>
-      </c>
-      <c r="D5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="2">
-        <v>1</v>
+      <c r="B5" s="3">
+        <v>2</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="3">
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="5:5">
       <c r="E6" s="2"/>
     </row>
-    <row r="7" spans="5:5">
-      <c r="E7" s="2"/>
-    </row>
-    <row r="8" spans="5:5">
-      <c r="E8" s="2"/>
-    </row>
-    <row r="9" spans="5:5">
-      <c r="E9" s="2"/>
-    </row>
-    <row r="26" spans="2:7">
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-    </row>
-    <row r="27" spans="3:5">
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-    </row>
-    <row r="33" spans="5:5">
-      <c r="E33" s="2"/>
-    </row>
-    <row r="34" spans="4:4">
-      <c r="D34" s="2"/>
-    </row>
-    <row r="35" spans="4:4">
-      <c r="D35" s="2"/>
-    </row>
-    <row r="36" spans="4:4">
-      <c r="D36" s="2"/>
-    </row>
-    <row r="37" spans="5:5">
-      <c r="E37" s="2"/>
-    </row>
-    <row r="38" spans="5:5">
-      <c r="E38" s="2"/>
-    </row>
-    <row r="39" spans="5:7">
-      <c r="E39" s="3"/>
-      <c r="F39" s="3"/>
-      <c r="G39" s="3"/>
-    </row>
-    <row r="40" spans="4:7">
-      <c r="D40" s="2"/>
-      <c r="E40" s="3"/>
-      <c r="F40" s="3"/>
-      <c r="G40" s="3"/>
-    </row>
-    <row r="41" spans="4:7">
-      <c r="D41" s="2"/>
-      <c r="E41" s="3"/>
-      <c r="F41" s="3"/>
-      <c r="G41" s="3"/>
-    </row>
-    <row r="42" spans="4:7">
-      <c r="D42" s="2"/>
-      <c r="E42" s="3"/>
-      <c r="F42" s="3"/>
-      <c r="G42" s="3"/>
+    <row r="23" spans="2:6">
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+    </row>
+    <row r="24" spans="3:5">
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+    </row>
+    <row r="26" spans="7:7">
+      <c r="G26" s="4"/>
+    </row>
+    <row r="30" spans="5:5">
+      <c r="E30" s="2"/>
+    </row>
+    <row r="31" spans="4:4">
+      <c r="D31" s="2"/>
+    </row>
+    <row r="32" spans="4:4">
+      <c r="D32" s="2"/>
+    </row>
+    <row r="33" spans="4:4">
+      <c r="D33" s="2"/>
+    </row>
+    <row r="34" spans="5:5">
+      <c r="E34" s="2"/>
+    </row>
+    <row r="35" spans="5:5">
+      <c r="E35" s="2"/>
+    </row>
+    <row r="36" spans="5:6">
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+    </row>
+    <row r="37" spans="4:6">
+      <c r="D37" s="2"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
+    </row>
+    <row r="38" spans="4:6">
+      <c r="D38" s="2"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
+    </row>
+    <row r="39" spans="4:7">
+      <c r="D39" s="2"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="4"/>
+    </row>
+    <row r="40" spans="7:7">
+      <c r="G40" s="4"/>
+    </row>
+    <row r="41" spans="7:7">
+      <c r="G41" s="4"/>
+    </row>
+    <row r="42" spans="5:7">
+      <c r="E42" s="2"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="4"/>
+    </row>
+    <row r="44" spans="5:6">
+      <c r="E44" s="4"/>
+      <c r="F44" s="4"/>
     </row>
     <row r="45" spans="5:7">
       <c r="E45" s="2"/>
-      <c r="F45" s="3"/>
-      <c r="G45" s="3"/>
+      <c r="F45" s="4"/>
+      <c r="G45" s="4"/>
+    </row>
+    <row r="46" spans="5:6">
+      <c r="E46" s="4"/>
+      <c r="F46" s="4"/>
     </row>
     <row r="47" spans="5:7">
-      <c r="E47" s="3"/>
-      <c r="F47" s="3"/>
-      <c r="G47" s="3"/>
+      <c r="E47" s="4"/>
+      <c r="F47" s="4"/>
+      <c r="G47" s="4"/>
     </row>
     <row r="48" spans="5:7">
-      <c r="E48" s="2"/>
-      <c r="F48" s="3"/>
-      <c r="G48" s="3"/>
+      <c r="E48" s="4"/>
+      <c r="F48" s="4"/>
+      <c r="G48" s="4"/>
     </row>
     <row r="49" spans="5:7">
-      <c r="E49" s="3"/>
-      <c r="F49" s="3"/>
-      <c r="G49" s="3"/>
+      <c r="E49" s="4"/>
+      <c r="F49" s="4"/>
+      <c r="G49" s="4"/>
     </row>
     <row r="50" spans="5:7">
-      <c r="E50" s="3"/>
-      <c r="F50" s="3"/>
-      <c r="G50" s="3"/>
-    </row>
-    <row r="51" spans="5:7">
-      <c r="E51" s="3"/>
-      <c r="F51" s="3"/>
-      <c r="G51" s="3"/>
-    </row>
-    <row r="52" spans="5:7">
-      <c r="E52" s="3"/>
-      <c r="F52" s="3"/>
-      <c r="G52" s="3"/>
-    </row>
-    <row r="53" spans="5:7">
-      <c r="E53" s="3"/>
-      <c r="F53" s="3"/>
-      <c r="G53" s="3"/>
+      <c r="E50" s="4"/>
+      <c r="F50" s="4"/>
+      <c r="G50" s="4"/>
+    </row>
+    <row r="51" spans="4:7">
+      <c r="D51" s="2"/>
+      <c r="E51" s="4"/>
+      <c r="F51" s="4"/>
+      <c r="G51" s="4"/>
+    </row>
+    <row r="52" spans="4:7">
+      <c r="D52" s="2"/>
+      <c r="E52" s="4"/>
+      <c r="F52" s="4"/>
+      <c r="G52" s="4"/>
+    </row>
+    <row r="53" spans="4:7">
+      <c r="D53" s="2"/>
+      <c r="E53" s="4"/>
+      <c r="F53" s="4"/>
+      <c r="G53" s="4"/>
     </row>
     <row r="54" spans="4:7">
       <c r="D54" s="2"/>
-      <c r="E54" s="3"/>
-      <c r="F54" s="3"/>
-      <c r="G54" s="3"/>
+      <c r="E54" s="4"/>
+      <c r="F54" s="4"/>
+      <c r="G54" s="4"/>
     </row>
     <row r="55" spans="4:7">
       <c r="D55" s="2"/>
-      <c r="E55" s="3"/>
-      <c r="F55" s="3"/>
-      <c r="G55" s="3"/>
+      <c r="E55" s="4"/>
+      <c r="F55" s="4"/>
+      <c r="G55" s="4"/>
     </row>
     <row r="56" spans="4:7">
       <c r="D56" s="2"/>
-      <c r="E56" s="3"/>
-      <c r="F56" s="3"/>
-      <c r="G56" s="3"/>
+      <c r="E56" s="4"/>
+      <c r="F56" s="4"/>
+      <c r="G56" s="4"/>
     </row>
     <row r="57" spans="4:7">
       <c r="D57" s="2"/>
-      <c r="E57" s="3"/>
-      <c r="F57" s="3"/>
-      <c r="G57" s="3"/>
+      <c r="E57" s="4"/>
+      <c r="F57" s="4"/>
+      <c r="G57" s="4"/>
     </row>
     <row r="58" spans="4:7">
       <c r="D58" s="2"/>
-      <c r="E58" s="3"/>
-      <c r="F58" s="3"/>
-      <c r="G58" s="3"/>
+      <c r="E58" s="4"/>
+      <c r="F58" s="4"/>
+      <c r="G58" s="4"/>
     </row>
     <row r="59" spans="4:7">
       <c r="D59" s="2"/>
-      <c r="E59" s="3"/>
-      <c r="F59" s="3"/>
-      <c r="G59" s="3"/>
+      <c r="E59" s="4"/>
+      <c r="F59" s="4"/>
+      <c r="G59" s="4"/>
     </row>
     <row r="60" spans="4:7">
       <c r="D60" s="2"/>
-      <c r="E60" s="3"/>
-      <c r="F60" s="3"/>
-      <c r="G60" s="3"/>
+      <c r="E60" s="4"/>
+      <c r="F60" s="4"/>
+      <c r="G60" s="4"/>
     </row>
     <row r="61" spans="4:7">
       <c r="D61" s="2"/>
-      <c r="E61" s="3"/>
-      <c r="F61" s="3"/>
-      <c r="G61" s="3"/>
+      <c r="E61" s="4"/>
+      <c r="F61" s="4"/>
+      <c r="G61" s="4"/>
     </row>
     <row r="62" spans="4:7">
       <c r="D62" s="2"/>
-      <c r="E62" s="3"/>
-      <c r="F62" s="3"/>
-      <c r="G62" s="3"/>
+      <c r="E62" s="4"/>
+      <c r="F62" s="4"/>
+      <c r="G62" s="4"/>
     </row>
     <row r="63" spans="4:7">
       <c r="D63" s="2"/>
-      <c r="E63" s="3"/>
-      <c r="F63" s="3"/>
-      <c r="G63" s="3"/>
-    </row>
-    <row r="64" spans="4:7">
+      <c r="E63" s="4"/>
+      <c r="F63" s="4"/>
+      <c r="G63" s="4"/>
+    </row>
+    <row r="64" spans="2:7">
+      <c r="B64" s="5"/>
+      <c r="C64" s="2"/>
       <c r="D64" s="2"/>
-      <c r="E64" s="3"/>
-      <c r="F64" s="3"/>
-      <c r="G64" s="3"/>
-    </row>
-    <row r="65" spans="4:7">
+      <c r="E64" s="2"/>
+      <c r="G64" s="4"/>
+    </row>
+    <row r="65" spans="2:7">
+      <c r="B65" s="5"/>
       <c r="D65" s="2"/>
-      <c r="E65" s="3"/>
-      <c r="F65" s="3"/>
-      <c r="G65" s="3"/>
-    </row>
-    <row r="66" spans="4:7">
+      <c r="E65" s="2"/>
+      <c r="G65" s="4"/>
+    </row>
+    <row r="66" spans="2:7">
+      <c r="B66" s="5"/>
       <c r="D66" s="2"/>
-      <c r="E66" s="3"/>
-      <c r="F66" s="3"/>
-      <c r="G66" s="3"/>
+      <c r="E66" s="2"/>
+      <c r="G66" s="4"/>
     </row>
     <row r="67" spans="2:5">
-      <c r="B67" s="4"/>
-      <c r="C67" s="2"/>
+      <c r="B67" s="5"/>
       <c r="D67" s="2"/>
       <c r="E67" s="2"/>
     </row>
     <row r="68" spans="2:5">
-      <c r="B68" s="4"/>
+      <c r="B68" s="5"/>
       <c r="D68" s="2"/>
       <c r="E68" s="2"/>
     </row>
     <row r="69" spans="2:5">
-      <c r="B69" s="4"/>
+      <c r="B69" s="5"/>
       <c r="D69" s="2"/>
       <c r="E69" s="2"/>
     </row>
     <row r="70" spans="2:5">
-      <c r="B70" s="4"/>
+      <c r="B70" s="5"/>
       <c r="D70" s="2"/>
       <c r="E70" s="2"/>
     </row>
     <row r="71" spans="2:5">
-      <c r="B71" s="4"/>
+      <c r="B71" s="5"/>
       <c r="D71" s="2"/>
       <c r="E71" s="2"/>
     </row>
     <row r="72" spans="2:5">
-      <c r="B72" s="4"/>
+      <c r="B72" s="5"/>
       <c r="D72" s="2"/>
       <c r="E72" s="2"/>
     </row>
     <row r="73" spans="2:5">
-      <c r="B73" s="4"/>
-      <c r="D73" s="2"/>
+      <c r="B73" s="5"/>
       <c r="E73" s="2"/>
     </row>
     <row r="74" spans="2:5">
-      <c r="B74" s="4"/>
-      <c r="D74" s="2"/>
+      <c r="B74" s="5"/>
       <c r="E74" s="2"/>
     </row>
     <row r="75" spans="2:5">
-      <c r="B75" s="4"/>
-      <c r="D75" s="2"/>
+      <c r="B75" s="5"/>
       <c r="E75" s="2"/>
     </row>
     <row r="76" spans="2:5">
-      <c r="B76" s="4"/>
+      <c r="B76" s="5"/>
       <c r="E76" s="2"/>
     </row>
     <row r="77" spans="2:5">
-      <c r="B77" s="4"/>
+      <c r="B77" s="5"/>
       <c r="E77" s="2"/>
     </row>
     <row r="78" spans="2:5">
-      <c r="B78" s="4"/>
+      <c r="B78" s="5"/>
       <c r="E78" s="2"/>
     </row>
     <row r="79" spans="2:5">
-      <c r="B79" s="4"/>
+      <c r="B79" s="5"/>
+      <c r="D79" s="2"/>
       <c r="E79" s="2"/>
     </row>
     <row r="80" spans="2:5">
-      <c r="B80" s="4"/>
+      <c r="B80" s="5"/>
       <c r="E80" s="2"/>
     </row>
     <row r="81" spans="2:5">
-      <c r="B81" s="4"/>
+      <c r="B81" s="5"/>
       <c r="E81" s="2"/>
     </row>
     <row r="82" spans="2:5">
-      <c r="B82" s="4"/>
-      <c r="D82" s="2"/>
+      <c r="B82" s="5"/>
       <c r="E82" s="2"/>
     </row>
     <row r="83" spans="2:5">
-      <c r="B83" s="4"/>
+      <c r="B83" s="5"/>
       <c r="E83" s="2"/>
     </row>
     <row r="84" spans="2:5">
-      <c r="B84" s="4"/>
+      <c r="B84" s="5"/>
       <c r="E84" s="2"/>
     </row>
     <row r="85" spans="2:5">
-      <c r="B85" s="4"/>
+      <c r="B85" s="5"/>
       <c r="E85" s="2"/>
     </row>
     <row r="86" spans="2:5">
-      <c r="B86" s="4"/>
+      <c r="B86" s="5"/>
       <c r="E86" s="2"/>
     </row>
     <row r="87" spans="2:5">
-      <c r="B87" s="4"/>
+      <c r="B87" s="5"/>
       <c r="E87" s="2"/>
     </row>
     <row r="88" spans="2:5">
-      <c r="B88" s="4"/>
+      <c r="B88" s="5"/>
       <c r="E88" s="2"/>
     </row>
     <row r="89" spans="2:5">
-      <c r="B89" s="4"/>
+      <c r="B89" s="5"/>
       <c r="E89" s="2"/>
     </row>
     <row r="90" spans="2:5">
-      <c r="B90" s="4"/>
+      <c r="B90" s="5"/>
       <c r="E90" s="2"/>
     </row>
     <row r="91" spans="2:5">
-      <c r="B91" s="4"/>
+      <c r="B91" s="5"/>
       <c r="E91" s="2"/>
     </row>
     <row r="92" spans="2:5">
-      <c r="B92" s="4"/>
+      <c r="B92" s="5"/>
       <c r="E92" s="2"/>
     </row>
     <row r="93" spans="2:5">
-      <c r="B93" s="4"/>
+      <c r="B93" s="5"/>
       <c r="E93" s="2"/>
     </row>
     <row r="94" spans="2:5">
-      <c r="B94" s="4"/>
+      <c r="B94" s="5"/>
       <c r="E94" s="2"/>
     </row>
     <row r="95" spans="2:5">
-      <c r="B95" s="4"/>
+      <c r="B95" s="5"/>
       <c r="E95" s="2"/>
     </row>
     <row r="96" spans="2:5">
-      <c r="B96" s="4"/>
+      <c r="B96" s="5"/>
       <c r="E96" s="2"/>
     </row>
     <row r="97" spans="2:5">
-      <c r="B97" s="4"/>
+      <c r="B97" s="5"/>
       <c r="E97" s="2"/>
     </row>
     <row r="98" spans="2:5">
-      <c r="B98" s="4"/>
+      <c r="B98" s="5"/>
       <c r="E98" s="2"/>
     </row>
     <row r="99" spans="2:5">
-      <c r="B99" s="4"/>
+      <c r="B99" s="5"/>
       <c r="E99" s="2"/>
     </row>
     <row r="100" spans="2:5">
-      <c r="B100" s="4"/>
+      <c r="B100" s="5"/>
       <c r="E100" s="2"/>
     </row>
     <row r="101" spans="2:5">
-      <c r="B101" s="4"/>
+      <c r="B101" s="5"/>
       <c r="E101" s="2"/>
     </row>
     <row r="102" spans="2:5">
-      <c r="B102" s="4"/>
+      <c r="B102" s="5"/>
       <c r="E102" s="2"/>
     </row>
     <row r="103" spans="2:5">
-      <c r="B103" s="4"/>
+      <c r="B103" s="5"/>
       <c r="E103" s="2"/>
     </row>
     <row r="104" spans="2:5">
-      <c r="B104" s="4"/>
+      <c r="B104" s="5"/>
       <c r="E104" s="2"/>
     </row>
     <row r="105" spans="2:5">
-      <c r="B105" s="4"/>
+      <c r="B105" s="5"/>
       <c r="E105" s="2"/>
     </row>
     <row r="106" spans="2:5">
-      <c r="B106" s="4"/>
+      <c r="B106" s="5"/>
       <c r="E106" s="2"/>
     </row>
     <row r="107" spans="2:5">
-      <c r="B107" s="4"/>
+      <c r="B107" s="5"/>
       <c r="E107" s="2"/>
     </row>
     <row r="108" spans="2:5">
-      <c r="B108" s="4"/>
+      <c r="B108" s="5"/>
       <c r="E108" s="2"/>
     </row>
     <row r="109" spans="2:5">
-      <c r="B109" s="4"/>
+      <c r="B109" s="5"/>
       <c r="E109" s="2"/>
     </row>
     <row r="110" spans="2:5">
-      <c r="B110" s="4"/>
+      <c r="B110" s="5"/>
       <c r="E110" s="2"/>
     </row>
     <row r="111" spans="2:5">
-      <c r="B111" s="4"/>
+      <c r="B111" s="5"/>
       <c r="E111" s="2"/>
     </row>
     <row r="112" spans="2:5">
-      <c r="B112" s="4"/>
+      <c r="B112" s="5"/>
       <c r="E112" s="2"/>
     </row>
     <row r="113" spans="2:5">
-      <c r="B113" s="4"/>
+      <c r="B113" s="5"/>
       <c r="E113" s="2"/>
     </row>
     <row r="114" spans="2:5">
-      <c r="B114" s="4"/>
+      <c r="B114" s="5"/>
       <c r="E114" s="2"/>
     </row>
     <row r="115" spans="2:5">
-      <c r="B115" s="4"/>
+      <c r="B115" s="5"/>
       <c r="E115" s="2"/>
     </row>
     <row r="116" spans="2:5">
-      <c r="B116" s="4"/>
+      <c r="B116" s="5"/>
       <c r="E116" s="2"/>
     </row>
     <row r="117" spans="2:5">
-      <c r="B117" s="4"/>
+      <c r="B117" s="5"/>
       <c r="E117" s="2"/>
-    </row>
-    <row r="118" spans="2:5">
-      <c r="B118" s="4"/>
-      <c r="E118" s="2"/>
-    </row>
-    <row r="119" spans="2:5">
-      <c r="B119" s="4"/>
-      <c r="E119" s="2"/>
-    </row>
-    <row r="120" spans="2:5">
-      <c r="B120" s="4"/>
-      <c r="E120" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Design/Excel/Game/Datas/Scene.xlsx
+++ b/Design/Excel/Game/Datas/Scene.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
   <si>
     <t>##var</t>
   </si>
@@ -35,6 +35,12 @@
     <t>Id</t>
   </si>
   <si>
+    <t>CSName</t>
+  </si>
+  <si>
+    <t>Desc</t>
+  </si>
+  <si>
     <t>AssetName</t>
   </si>
   <si>
@@ -47,6 +53,9 @@
     <t>int</t>
   </si>
   <si>
+    <t>string&amp;group=e</t>
+  </si>
+  <si>
     <t>string</t>
   </si>
   <si>
@@ -56,7 +65,10 @@
     <t>场景编号</t>
   </si>
   <si>
-    <t>备注</t>
+    <t>场景编号代码名（程序填）</t>
+  </si>
+  <si>
+    <t>策划备注</t>
   </si>
   <si>
     <t>资源名称</t>
@@ -65,16 +77,16 @@
     <t>背景音乐编号</t>
   </si>
   <si>
+    <t>Menu</t>
+  </si>
+  <si>
     <t>菜单场景</t>
   </si>
   <si>
-    <t>Menu</t>
+    <t>Main</t>
   </si>
   <si>
     <t>战斗场景</t>
-  </si>
-  <si>
-    <t>Main</t>
   </si>
 </sst>
 </file>
@@ -688,9 +700,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1044,94 +1059,119 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A96" workbookViewId="0">
-      <selection activeCell="E117" sqref="A6:E117"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="8.875" style="1"/>
     <col min="2" max="2" width="19.375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="17.125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="29.75" style="1" customWidth="1"/>
-    <col min="5" max="5" width="25.25" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.875" style="1"/>
+    <col min="3" max="3" width="23.375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17.125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="29.75" style="1" customWidth="1"/>
+    <col min="6" max="6" width="25.25" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6">
+      <c r="B4" s="3">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6">
+      <c r="B5" s="3">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
+      <c r="C5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="3">
+        <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="2:5">
-      <c r="B4" s="2">
-        <v>1</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="2:5">
-      <c r="B5" s="2">
-        <v>2</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="2">
-        <v>2</v>
-      </c>
+    <row r="6" spans="6:6">
+      <c r="F6" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
